--- a/Lab/02/Python/data.xlsx
+++ b/Lab/02/Python/data.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -412,18 +413,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="A2:I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="28.42578125" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -463,17 +459,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:16:07</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>мясо</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -488,17 +484,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:16:07</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>рубль</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -513,17 +509,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:16:07</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>мясо</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -538,17 +534,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:16:07</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>рубль</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -563,17 +559,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:16:07</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>мясо</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -588,17 +584,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:16:07</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>рубль</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -613,17 +609,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:16:07</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>мясо</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -638,17 +634,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:16:07</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>рубль</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -663,17 +659,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:16:07</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>мясо</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -688,17 +684,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:16:07</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>рубль</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -713,17 +709,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:16:07</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>мясо</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -738,17 +734,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:16:07</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>рубль</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -763,17 +759,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:16:53</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>мясо</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -788,17 +784,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:16:53</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>рубль</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -813,17 +809,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:16:53</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>мясо</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -838,17 +834,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:16:53</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>рубль</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -863,17 +859,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:16:53</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>мясо</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -888,17 +884,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:16:53</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>рубль</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -913,17 +909,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:16:53</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>мясо</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -938,17 +934,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:16:53</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>рубль</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -963,17 +959,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:18:01</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>мясо</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -988,17 +984,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:18:01</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>рубль</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1013,17 +1009,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:18:01</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>мясо</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1038,17 +1034,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:18:01</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>рубль</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1063,17 +1059,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:18:01</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>мясо</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1088,17 +1084,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:18:01</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>рубль</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1113,17 +1109,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:18:01</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>мясо</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1138,17 +1134,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:18:01</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>рубль</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1159,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:18:01</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>мясо</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1188,17 +1184,292 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Время и дата</t>
+          <t>15.12.2020 02:18:01</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>рубль</t>
+          <t>огурец</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>63DE2482C6418E9EF1CDC8C585FF3BE67C3683C8663F825211580B204B6C703D</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>15.12.2020 02:18:01</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>огурец</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>63DE2482C6418E9EF1CDC8C585FF3BE67C3683C8663F825211580B204B6C703D</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>15.12.2020 02:19:09</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>огурец</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>63DE2482C6418E9EF1CDC8C585FF3BE67C3683C8663F825211580B204B6C703D</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>15.12.2020 02:19:09</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>огурец</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>63DE2482C6418E9EF1CDC8C585FF3BE67C3683C8663F825211580B204B6C703D</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>15.12.2020 02:19:09</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>огурец</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>63DE2482C6418E9EF1CDC8C585FF3BE67C3683C8663F825211580B204B6C703D</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>15.12.2020 02:19:09</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>огурец</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>63DE2482C6418E9EF1CDC8C585FF3BE67C3683C8663F825211580B204B6C703D</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>15.12.2020 02:19:09</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>огурец</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>63DE2482C6418E9EF1CDC8C585FF3BE67C3683C8663F825211580B204B6C703D</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>15.12.2020 02:19:09</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>огурец</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>63DE2482C6418E9EF1CDC8C585FF3BE67C3683C8663F825211580B204B6C703D</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>15.12.2020 02:19:09</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>огурец</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>63DE2482C6418E9EF1CDC8C585FF3BE67C3683C8663F825211580B204B6C703D</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>15.12.2020 02:19:09</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>огурец</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>63DE2482C6418E9EF1CDC8C585FF3BE67C3683C8663F825211580B204B6C703D</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>15.12.2020 02:19:09</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>огурец</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>63DE2482C6418E9EF1CDC8C585FF3BE67C3683C8663F825211580B204B6C703D</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>15.12.2020 02:19:09</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>огурец</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
